--- a/Database/DatADictionary.xlsx
+++ b/Database/DatADictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafaël\Documents\GitHub\ChainGang\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99880E4C-5E68-4A11-B4F5-C39BE33460C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFA10DA-521E-44EE-877D-7AFB492EA976}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CC884F3-F507-4537-AD87-0D580E973446}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>Veld Naam</t>
   </si>
@@ -46,6 +46,144 @@
   </si>
   <si>
     <t>Tabel Naam</t>
+  </si>
+  <si>
+    <t>Gebruiker</t>
+  </si>
+  <si>
+    <t>gebruiker_voornaam</t>
+  </si>
+  <si>
+    <t>gebruiker_achternaam</t>
+  </si>
+  <si>
+    <t>gebruiker_emailadress</t>
+  </si>
+  <si>
+    <t>gebruiker_telefoonnummer</t>
+  </si>
+  <si>
+    <t>gebruiker_gebruikersnaam</t>
+  </si>
+  <si>
+    <t>gebruiker_wachtwoord</t>
+  </si>
+  <si>
+    <t>gebruiker_isAdmin</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Klant</t>
+  </si>
+  <si>
+    <t>klant_voornaam</t>
+  </si>
+  <si>
+    <t>klant_achternaam</t>
+  </si>
+  <si>
+    <t>klant_emailadress</t>
+  </si>
+  <si>
+    <t>klant_telefoonnummer</t>
+  </si>
+  <si>
+    <t>klant_straat</t>
+  </si>
+  <si>
+    <t>klant_postcode</t>
+  </si>
+  <si>
+    <t>klant_woonplaats</t>
+  </si>
+  <si>
+    <t>klant_wilNieuwsbrief</t>
+  </si>
+  <si>
+    <t>Bestelling</t>
+  </si>
+  <si>
+    <t>klant_id</t>
+  </si>
+  <si>
+    <t>gebruiker_id</t>
+  </si>
+  <si>
+    <t>bestelling_id</t>
+  </si>
+  <si>
+    <t>Fiets</t>
+  </si>
+  <si>
+    <t>fiets_id</t>
+  </si>
+  <si>
+    <t>fiets_naam</t>
+  </si>
+  <si>
+    <t>fiets_merk</t>
+  </si>
+  <si>
+    <t>fiets_type</t>
+  </si>
+  <si>
+    <t>fiets_prijs</t>
+  </si>
+  <si>
+    <t>fiets_omschrijving</t>
+  </si>
+  <si>
+    <t>fiets_specificaties</t>
+  </si>
+  <si>
+    <t>fiets_foto</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>bestelling_datum</t>
+  </si>
+  <si>
+    <t>bestelling_aantal</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>review_id</t>
+  </si>
+  <si>
+    <t>review_titel</t>
+  </si>
+  <si>
+    <t>review_waardering</t>
+  </si>
+  <si>
+    <t>review_omschrijving</t>
+  </si>
+  <si>
+    <t>Aanbiedingen</t>
+  </si>
+  <si>
+    <t>aanbieding_id</t>
+  </si>
+  <si>
+    <t>aanbieding_naam</t>
+  </si>
+  <si>
+    <t>aanbieding_procent</t>
   </si>
 </sst>
 </file>
@@ -519,17 +657,20 @@
   <dimension ref="B2:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="5" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="17.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="10" width="17.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="17.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="15" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="17.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="10.7109375" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -537,19 +678,19 @@
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="3"/>
       <c r="G2" s="2"/>
       <c r="H2" s="7" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="3"/>
       <c r="L2" s="2"/>
       <c r="M2" s="7" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="3"/>
@@ -593,112 +734,222 @@
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
+      <c r="N4" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4">
+        <v>255</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="I5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="4">
+        <v>255</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O5" s="4"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="4">
+        <v>255</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="4">
+        <v>255</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="N6" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4">
+        <v>255</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <v>255</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O7" s="4"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
+      <c r="N8" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="O8" s="4"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4">
+        <v>255</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="4">
+        <v>255</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O9" s="4"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="4">
+        <v>255</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="4">
+        <v>255</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="4">
+        <v>255</v>
+      </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -709,9 +960,13 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -833,19 +1088,19 @@
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="7" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="7" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="N22" s="8"/>
       <c r="O22" s="3"/>
@@ -889,69 +1144,131 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="E25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O25" s="4">
+        <v>255</v>
+      </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="4">
+        <v>255</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="J26" s="4"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="4">
+        <v>255</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="I27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="4">
+        <v>255</v>
+      </c>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="G28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="4">
+        <v>255</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
+      <c r="I28" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="J28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
@@ -959,24 +1276,40 @@
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="E29" s="4"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="4">
+        <v>255</v>
+      </c>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="4">
+        <v>255</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -987,10 +1320,16 @@
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="4">
+        <v>255</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1001,10 +1340,16 @@
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="4">
+        <v>255</v>
+      </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1720,18 +2065,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
     <mergeCell ref="M42:N42"/>
     <mergeCell ref="H42:I42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="M62:N62"/>
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
